--- a/codes/Consistency/bowler_data_smat_score.xlsx
+++ b/codes/Consistency/bowler_data_smat_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/codes/Consistency/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C0EB3-B0DB-D941-A066-16A35E97283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A675B87-B76D-BE4B-879C-04795185442F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6420" windowWidth="29400" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Player</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>2019-2019</t>
+  </si>
+  <si>
+    <t>XC Bartlett</t>
+  </si>
+  <si>
+    <t>2020-2025</t>
+  </si>
+  <si>
+    <t>E Malinga</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="A2:R7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -874,6 +883,118 @@
         <v>-14.0459943</v>
       </c>
     </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2">
+        <v>159.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1357</v>
+      </c>
+      <c r="H8" s="2">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2">
+        <v>22.61</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.49</v>
+      </c>
+      <c r="K8" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="2">
+        <v>8</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.97959183673469385</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>7.0221922305255111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>14.18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="2">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>-14.678884700999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
